--- a/biology/Médecine/Epidaure_(ICM)/Epidaure_(ICM).xlsx
+++ b/biology/Médecine/Epidaure_(ICM)/Epidaure_(ICM).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epidaure est le Département de Prévention de l'ICM, Institut régional du Cancer de Montpellier.
 </t>
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Epidaure tire son nom de la ville d’Épidaure où tous les quatre ans se tenaient des joutes oratoires.
 Cette structure a vu le jour en 1988 à Montpellier grâce au soutien du conseil général de l'Hérault, du conseil régional du Languedoc-Roussillon et de la Ligue nationale contre le cancer. Cet espace est né de l'initiative d'Henri Pujol (Professeur en cancérologie) et de Claude Solassol (Directeur de l'UFR Médecine de Montpellier de 1981 à 2000). Epidaure effectue donc des missions statutaires des Centre de Lutte Contre le Cancer créés par l'Ordonnance de 1945 signée par le général de Gaulle.
@@ -543,7 +557,9 @@
           <t>Présentation du centre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Epidaure, le département prévention de l'ICM, dispose d'un espace d'activités ludo-éducatives de 400 m2 doté d'équipements audiovisuels et informatiques interactifs. Il est équipé de 300m² de salles de conférences ainsi que de bureaux.
 Epidaure est voué à la prévention des cancers et à l’éducation pour la santé. Il développe des programmes et des actions de prévention et d’éducation pour la santé pour la population générale.
@@ -577,7 +593,9 @@
           <t>Thèmes abordés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Epidaure, département prévention de l'ICM, est animé par une équipe pluridisciplinaire (médecin de santé publique, psychologue de la santé, professionnels de santé, enseignants, chargée d'animation, chargés de projets). Autour d’une exposition interactive permanente, des animations adaptées, au travers de parcours pédagogiques, sont proposées aux scolaires et aux divers publics. On y retrouve les thèmes suivants :
 L'alimentation avec A table tout le monde ;
@@ -615,7 +633,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Epidaure a pour mission la prévention des cancers. Il est le centre Ressources santé de l’Académie de Montpellier et partenaire privilégié de l'Agence régionale de santé. Il se structure autour de deux axes :
 La prévention primaire. Celle-ci a pour objectif la réduction des expositions à risque et la réduction du nombre de cancers ;
